--- a/IEC/D-IEC/Riangvilaikul2010.xlsx
+++ b/IEC/D-IEC/Riangvilaikul2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\EC-generic-model\Database_for_model_validation\D-IEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\OSD-ECMTest\IEC\D-IEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069B706-B4C7-4310-8CBF-ACBD32BC4D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202F754-C8FD-4AF5-811A-D302121A9842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Riangvilaikul2010" sheetId="7" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -567,6 +567,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,7 +586,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +954,7 @@
   <dimension ref="B1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1021,7 @@
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="52">
         <v>2010</v>
       </c>
       <c r="N5" s="6"/>
@@ -1036,20 +1039,20 @@
       <c r="B7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1099,18 +1102,18 @@
       <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
@@ -1185,7 +1188,7 @@
       <c r="F18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="58" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3773,6 +3776,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0A631236513B9418E5AF68A800ACA79" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="ad3ecf216e08acb36b19aa337e871f12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fbd837e5-054a-49eb-b52b-3e79ba6bda81" xmlns:ns3="16cc8f85-dc4c-4d27-a03f-db68d60dd571" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7cb4eca1a466029dd2fc18150b16dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
@@ -3949,12 +3958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E9B0F2-0F1F-4FE4-8066-C13DC92A4B39}">
   <ds:schemaRefs>
@@ -3964,6 +3967,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF5B01B-DE67-44CC-B4C3-E4CCF84B6011}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16cc8f85-dc4c-4d27-a03f-db68d60dd571"/>
+    <ds:schemaRef ds:uri="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C912D4EC-DADE-4A96-BF02-5A15107DDA7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3980,21 +4000,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF5B01B-DE67-44CC-B4C3-E4CCF84B6011}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="16cc8f85-dc4c-4d27-a03f-db68d60dd571"/>
-    <ds:schemaRef ds:uri="fbd837e5-054a-49eb-b52b-3e79ba6bda81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>